--- a/examples/XlsxPeasant_07_multiSheets.xlsx
+++ b/examples/XlsxPeasant_07_multiSheets.xlsx
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6B7053-3B0E-4F33-8074-B346CA8E4D11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAF4F0C-8FAA-4904-B1D8-517429ED4B37}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A03E18-0C16-4731-8EEF-430FB5B503B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5F33B0-2FC8-46F1-9467-2E8EDE2053FF}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741DEB70-528F-4491-80EF-0F5F42B4D214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48B67F7-CA28-4856-BE82-24C795A758EF}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
